--- a/xllinet.xlsx
+++ b/xllinet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Inet</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>Return a range from a handle. Use cell menu 'Adjust' to get the entire range.</t>
+  </si>
+  <si>
+    <t>JSON.PARSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>JSON.VALUE</t>
+  </si>
+  <si>
+    <t>Get JSON data from a parsed object.</t>
+  </si>
+  <si>
+    <t>Get values from a JSON object using keys.</t>
   </si>
 </sst>
 </file>
@@ -393,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,12 +419,15 @@
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -417,7 +435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -425,7 +443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -433,20 +451,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/xllinet.xlsx
+++ b/xllinet.xlsx
@@ -9,11 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
+    <sheet name="NYT" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="base">NYT!$C$2</definedName>
+    <definedName name="chamber">NYT!$C$5</definedName>
+    <definedName name="congress_number">NYT!$C$4</definedName>
+    <definedName name="key">NYT!$C$3</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Inet</t>
   </si>
@@ -73,12 +80,39 @@
   <si>
     <t>Get values from a JSON object using keys.</t>
   </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>fbc9bedb4572f73b1303da6208851ac4:7:71571757</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>http://api.nytimes.com/svc/politics/v3/us/legislative/congress</t>
+  </si>
+  <si>
+    <t>congress-number</t>
+  </si>
+  <si>
+    <t>chamber</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>senate</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +135,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,17 +168,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -487,4 +543,2411 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:QO35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:457" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:457" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:457" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:457" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:457" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="str">
+        <f>base&amp;"/"&amp;congress_number&amp;"/"&amp;chamber&amp;"/members.json?api-key="&amp;key</f>
+        <v>http://api.nytimes.com/svc/politics/v3/us/legislative/congress/113/house/members.json?api-key=fbc9bedb4572f73b1303da6208851ac4:7:71571757</v>
+      </c>
+    </row>
+    <row r="7" spans="2:457" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>_xll.INET.URL(C6)</f>
+        <v>-1.6197202885149665E-97</v>
+      </c>
+      <c r="C7" t="str">
+        <f>_xll.STR.GET(B7)</f>
+        <v>{
+   "status":"OK",
+   "copyright":"Copyright (c) 2015 The New York Times Company.  All Rights Reserved.",
+   "results":[
+      {
+         "congress": "113",
+         "chamber": "House",
+         "num_results": "450",
+         "offset": "0",
+         "members": [
+              {
+                 "id": "A000055",
+                 "thomas_id": "1460",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/A000055.json",
+                 "first_name": "Robert",
+                 "middle_name": "B.",
+                 "last_name": "Aderholt",
+                 "party": "R",
+                 "twitter_account": "Robert_Aderholt",
+                 "facebook_account": "RobertAderholt",
+                 "facebook_id": "19787529402",
+                 "url": "http://aderholt.house.gov",
+                 "rss_url": "http://aderholt.house.gov/common/rss//index.cfm?rss=20",
+                 "domain": "aderholt.house.gov",
+                 "dw_nominate": "0.466",
+                 "ideal_point": "0.844847943",
+                 "seniority": "18",
+                 "next_election": "2014",
+                 "state": "AL",
+                 "district": "4"
+                 ,"missed_votes_pct": "9.23",
+                 "votes_with_party_pct": "93.99"
+               },
+                           {
+                 "id": "A000210",
+                 "thomas_id": "21",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/A000210.json",
+                 "first_name": "Robert",
+                 "middle_name": "E.",
+                 "last_name": "Andrews",
+                 "party": "D",
+                 "twitter_account": "RepAndrews",
+                 "facebook_account": "",
+                 "facebook_id": "",
+                 "url": "http://andrews.house.gov/",
+                 "rss_url": "http://andrews.house.gov/rss.xml",
+                 "domain": "andrews.house.gov",
+                 "dw_nominate": "-0.387",
+                 "ideal_point": "-0.962338518",
+                 "seniority": "26",
+                 "next_election": "2014",
+                 "state": "NJ",
+                 "district": "1"
+                 ,"missed_votes_pct": "1.45",
+                 "votes_with_party_pct": "90.32"
+               },
+                           {
+                 "id": "A000361",
+                 "thomas_id": "1727",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/A000361.json",
+                 "first_name": "Rodney",
+                 "middle_name": null,
+                 "last_name": "Alexander",
+                 "party": "R",
+                 "twitter_account": "USRepAlexander",
+                 "facebook_account": "RepRodneyAlexander",
+                 "facebook_id": "20002702544",
+                 "url": "",
+                 "rss_url": "http://alexander.house.gov/common/rss/?rss=24",
+                 "domain": "alexander.house.gov",
+                 "dw_nominate": "0.441",
+                 "ideal_point": "0.615240126",
+                 "seniority": "12",
+                 "next_election": "2014",
+                 "state": "LA",
+                 "district": "5"
+                 ,"missed_votes_pct": "2.45",
+                 "votes_with_party_pct": "92.47"
+               },
+                           {
+                 "id": "A000367",
+                 "thomas_id": "2029",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/A000367.json",
+                 "first_name": "Justin",
+                 "middle_name": null,
+                 "last_name": "Amash",
+                 "party": "R",
+                 "twitter_account": "RepJustinAmash",
+                 "facebook_account": "repjustinamash",
+                 "facebook_id": "173604349345646",
+                 "url": "http://amash.house.gov",
+                 "rss_url": "http://amash.house.gov/rss.xml",
+                 "domain": "amash.house.gov",
+                 "dw_nominate": "0.995",
+                 "ideal_point": "0.521346012",
+                 "seniority": "4",
+                 "state": "MI",
+                 "district": "3"
+                 ,"missed_votes_pct": "0.00",
+                 "votes_with_party_pct": "77.01"
+               },
+                           {
+                 "id": "A000369",
+                 "thomas_id": "2090",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/A000369.json",
+                 "first_name": "Mark",
+                 "middle_name": null,
+                 "last_name": "Amodei",
+                 "party": "R",
+                 "twitter_account": "MarkAmodeiNV2",
+                 "facebook_account": "MarkAmodeiNV2",
+                 "facebook_id": "307227745970624",
+                 "url": "http://amodei.house.gov",
+                 "rss_url": "http://amodei.house.gov/common/rss//?rss=49",
+                 "domain": "amodei.house.gov",
+                 "dw_nominate": "0.666",
+                 "ideal_point": "0.850284197",
+                 "seniority": "4",
+                 "state": "NV",
+                 "district": "2"
+                 ,"missed_votes_pct": "7.97",
+                 "votes_with_party_pct": "94.17"
+               },
+                           {
+                 "id": "A000370",
+                 "thomas_id": "2201",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/A000370.json",
+                 "first_name": "Alma",
+                 "middle_name": "",
+                 "last_name": "Adams",
+                 "party": "D",
+                 "twitter_account": "RepAdams",
+                 "facebook_account": "",
+                 "facebook_id": "",
+                 "url": "http://adams.house.gov/",
+                 "rss_url": "http://adams.house.gov/rss.xml",
+                 "domain": "",
+                 "dw_nominate": "",
+                 "ideal_point": "",
+                 "seniority": "2",
+                 "state": "NC",
+                 "district": "12"
+                 ,"missed_votes_pct": "4.17",
+                 "votes_with_party_pct": "97.83"
+               },
+                           {
+                 "id": "B000013",
+                 "thomas_id": "38",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B000013.json",
+                 "first_name": "Spencer",
+                 "middle_name": null,
+                 "last_name": "Bachus",
+                 "party": "R",
+                 "twitter_account": "BachusAL06",
+                 "facebook_account": "SpencerBachus",
+                 "facebook_id": "6769692966",
+                 "url": "http://bachus.house.gov",
+                 "rss_url": "http://bachus.house.gov/rss/latest-press-releases.xml",
+                 "domain": "bachus.house.gov",
+                 "dw_nominate": "0.564",
+                 "ideal_point": "0.664485337",
+                 "seniority": "22",
+                 "next_election": "2014",
+                 "state": "AL",
+                 "district": "6"
+                 ,"missed_votes_pct": "2.60",
+                 "votes_with_party_pct": "92.94"
+               },
+                           {
+                 "id": "B000213",
+                 "thomas_id": "62",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B000213.json",
+                 "first_name": "Joe",
+                 "middle_name": "L.",
+                 "last_name": "Barton",
+                 "party": "R",
+                 "twitter_account": "RepJoeBarton",
+                 "facebook_account": "RepJoeBarton",
+                 "facebook_id": "15617630596",
+                 "url": "http://joebarton.house.gov",
+                 "rss_url": "",
+                 "domain": "joebarton.house.gov",
+                 "dw_nominate": "0.709",
+                 "ideal_point": "0.828795081",
+                 "seniority": "30",
+                 "next_election": "2014",
+                 "state": "TX",
+                 "district": "6"
+                 ,"missed_votes_pct": "6.38",
+                 "votes_with_party_pct": "94.27"
+               },
+                           {
+                 "id": "B000287",
+                 "thomas_id": "70",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B000287.json",
+                 "first_name": "Xavier",
+                 "middle_name": null,
+                 "last_name": "Becerra",
+                 "party": "D",
+                 "twitter_account": "RepBecerra",
+                 "facebook_account": "XavierBecerra",
+                 "facebook_id": "90311772229",
+                 "url": "http://becerra.house.gov",
+                 "rss_url": "http://becerra.house.gov/rss/latest-news.xml",
+                 "domain": "becerra.house.gov",
+                 "dw_nominate": "-0.446",
+                 "ideal_point": "-1.808374264",
+                 "seniority": "22",
+                 "next_election": "2014",
+                 "state": "CA",
+                 "district": "34"
+                 ,"missed_votes_pct": "3.36",
+                 "votes_with_party_pct": "95.57"
+               },
+                           {
+                 "id": "B000490",
+                 "thomas_id": "91",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B000490.json",
+                 "first_name": "Sanford",
+                 "middle_name": "D.",
+                 "last_name": "Bishop Jr.",
+                 "party": "D",
+                 "twitter_account": "SanfordBishop",
+                 "facebook_account": "sanfordbishop",
+                 "facebook_id": "366739521606",
+                 "url": "http://bishop.house.gov",
+                 "rss_url": "http://bishop.house.gov/rss.xml",
+                 "domain": "bishop.house.gov",
+                 "dw_nominate": "-0.218",
+                 "ideal_point": "-0.462051755",
+                 "seniority": "22",
+                 "next_election": "2014",
+                 "state": "GA",
+                 "district": "2"
+                 ,"missed_votes_pct": "6.21",
+                 "votes_with_party_pct": "85.87"
+               },
+                           {
+                 "id": "B000574",
+                 "thomas_id": "99",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B000574.json",
+                 "first_name": "Earl",
+                 "middle_name": null,
+                 "last_name": "Blumenauer",
+                 "party": "D",
+                 "twitter_account": "BlumenauerMedia",
+                 "facebook_account": "",
+                 "facebook_id": "",
+                 "url": "http://blumenauer.house.gov",
+                 "rss_url": "http://blumenauer.house.gov/index.php/newsroom/press-releases?format=feed&amp;amp;type=rss",
+                 "domain": "blumenauer.house.gov",
+                 "dw_nominate": "-0.503",
+                 "ideal_point": "-1.137534489",
+                 "seniority": "20",
+                 "next_election": "2014",
+                 "state": "OR",
+                 "district": "3"
+                 ,"missed_votes_pct": "4.98",
+                 "votes_with_party_pct": "93.52"
+               },
+                           {
+                 "id": "B000589",
+                 "thomas_id": "102",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B000589.json",
+                 "first_name": "John",
+                 "middle_name": "A.",
+                 "last_name": "Boehner",
+                 "party": "R",
+                 "twitter_account": "SpeakerBoehner",
+                 "facebook_account": "SpeakerJohnBoehner",
+                 "facebook_id": "175082565865743",
+                 "url": "http://boehner.house.gov",
+                 "rss_url": "http://boehner.house.gov/News/Rss.aspx",
+                 "domain": "johnboehner.house.gov",
+                 "dw_nominate": "",
+                 "ideal_point": "0.773917868",
+                 "seniority": "24",
+                 "next_election": "2014",
+                 "state": "OH",
+                 "district": "8"
+                 ,"missed_votes_pct": "97.73",
+                 "votes_with_party_pct": "88.89"
+               },
+                           {
+                 "id": "B000755",
+                 "thomas_id": "1468",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B000755.json",
+                 "first_name": "Kevin",
+                 "middle_name": null,
+                 "last_name": "Brady",
+                 "party": "R",
+                 "twitter_account": "RepKevinBrady",
+                 "facebook_account": "kevinbrady",
+                 "facebook_id": "9307301412",
+                 "url": "http://kevinbrady.house.gov",
+                 "rss_url": "http://kevinbrady.house.gov/common/rss/index.cfm?rss=49",
+                 "domain": "kevinbrady.house.gov",
+                 "dw_nominate": "0.765",
+                 "ideal_point": "1.051046784",
+                 "seniority": "18",
+                 "next_election": "2014",
+                 "state": "TX",
+                 "district": "8"
+                 ,"missed_votes_pct": "4.36",
+                 "votes_with_party_pct": "95.70"
+               },
+                           {
+                 "id": "B000911",
+                 "thomas_id": "132",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B000911.json",
+                 "first_name": "Corrine",
+                 "middle_name": null,
+                 "last_name": "Brown",
+                 "party": "D",
+                 "twitter_account": "RepCorrineBrown",
+                 "facebook_account": "congresswomanbrown",
+                 "facebook_id": "179120958813519",
+                 "url": "http://corrinebrown.house.gov",
+                 "rss_url": "http://corrinebrown.house.gov/index.php?option=com_ninjarsssyndicator&amp;amp;feed_id=1&amp;amp;format=raw",
+                 "domain": "corrinebrown.house.gov",
+                 "dw_nominate": "-0.368",
+                 "ideal_point": "-1.054517601",
+                 "seniority": "22",
+                 "next_election": "2014",
+                 "state": "FL",
+                 "district": "5"
+                 ,"missed_votes_pct": "5.70",
+                 "votes_with_party_pct": "95.02"
+               },
+                           {
+                 "id": "B001227",
+                 "thomas_id": "1469",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001227.json",
+                 "first_name": "Robert",
+                 "middle_name": "A.",
+                 "last_name": "Brady",
+                 "party": "D",
+                 "twitter_account": "RepBrady",
+                 "facebook_account": "RepRobertBrady",
+                 "facebook_id": "118845109487",
+                 "url": "http://brady.house.gov",
+                 "rss_url": "http://brady.house.gov/rss.xml",
+                 "domain": "www.brady.house.gov",
+                 "dw_nominate": "-0.437",
+                 "ideal_point": "-1.119643579",
+                 "seniority": "18",
+                 "next_election": "2014",
+                 "state": "PA",
+                 "district": "1"
+                 ,"missed_votes_pct": "1.68",
+                 "votes_with_party_pct": "93.77"
+               },
+                           {
+                 "id": "B001242",
+                 "thomas_id": "1740",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001242.json",
+                 "first_name": "Timothy",
+                 "middle_name": "H.",
+                 "last_name": "Bishop",
+                 "party": "D",
+                 "twitter_account": "TimBishopNY",
+                 "facebook_account": "RepTimBishop",
+                 "facebook_id": "7940339401",
+                 "url": "http://timbishop.house.gov",
+                 "rss_url": "http://timbishop.house.gov/rss/latest-news.xml",
+                 "domain": "timbishop.house.gov",
+                 "dw_nominate": "-0.311",
+                 "ideal_point": "-0.884568916",
+                 "seniority": "12",
+                 "next_election": "2014",
+                 "state": "NY",
+                 "district": "1"
+                 ,"missed_votes_pct": "0.84",
+                 "votes_with_party_pct": "91.46"
+               },
+                           {
+                 "id": "B001243",
+                 "thomas_id": "1748",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001243.json",
+                 "first_name": "Marsha",
+                 "middle_name": null,
+                 "last_name": "Blackburn",
+                 "party": "R",
+                 "twitter_account": "MarshaBlackburn",
+                 "facebook_account": "marshablackburn",
+                 "facebook_id": "6470828395",
+                 "url": "http://blackburn.house.gov",
+                 "rss_url": "http://blackburn.house.gov/news/rss.aspx",
+                 "domain": "blackburn.house.gov",
+                 "dw_nominate": "0.807",
+                 "ideal_point": "1.217153563",
+                 "seniority": "12",
+                 "next_election": "2014",
+                 "state": "TN",
+                 "district": "7"
+                 ,"missed_votes_pct": "2.27",
+                 "votes_with_party_pct": "96.22"
+               },
+                           {
+                 "id": "B001244",
+                 "thomas_id": "1703",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001244.json",
+                 "first_name": "Jo",
+                 "middle_name": null,
+                 "last_name": "Bonner",
+                 "party": "R",
+                 "twitter_account": "repjobonner",
+                 "facebook_account": "jobonner",
+                 "facebook_id": "49704847429",
+                 "url": "http://bonner.house.gov/",
+                 "rss_url": "http://bonner.house.gov/index.php?option=com_bca-rss-syndicator&amp;amp;feed_id=1",
+                 "domain": "bonner.house.gov",
+                 "dw_nominate": "0.448",
+                 "ideal_point": "0.729763899",
+                 "seniority": "12",
+                 "next_election": "2014",
+                 "state": "AL",
+                 "district": "1"
+                 ,"missed_votes_pct": "7.38",
+                 "votes_with_party_pct": "92.03"
+               },
+                           {
+                 "id": "B001245",
+                 "thomas_id": "1723",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001245.json",
+                 "first_name": "Madeleine",
+                 "middle_name": "Z.",
+                 "last_name": "Bordallo",
+                 "party": "D",
+                 "twitter_account": "",
+                 "facebook_account": "madeleine.bordallo",
+                 "facebook_id": "161729837225622",
+                 "url": "http://bordallo.house.gov",
+                 "rss_url": "http://bordallo.house.gov/rss.xml",
+                 "domain": "bordallo.house.gov",
+                 "dw_nominate": "",
+                 "ideal_point": "",
+                 "seniority": "12",
+                 "next_election": "2014",
+                 "state": "GU",
+                 "district": "79"
+                 ,"missed_votes_pct": "0.00",
+                 "votes_with_party_pct": "0.00"
+               },
+                           {
+                 "id": "B001248",
+                 "thomas_id": "1751",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001248.json",
+                 "first_name": "Michael",
+                 "middle_name": "C.",
+                 "last_name": "Burgess",
+                 "party": "R",
+                 "twitter_account": "MichaelCBurgess",
+                 "facebook_account": "michaelcburgess",
+                 "facebook_id": "6916472567",
+                 "url": "http://burgess.house.gov",
+                 "rss_url": "http://burgess.house.gov/news/rss.aspx",
+                 "domain": "burgess.house.gov",
+                 "dw_nominate": "0.99",
+                 "ideal_point": "1.025880141",
+                 "seniority": "12",
+                 "next_election": "2014",
+                 "state": "TX",
+                 "district": "26"
+                 ,"missed_votes_pct": "2.01",
+                 "votes_with_party_pct": "90.15"
+               },
+                           {
+                 "id": "B001250",
+                 "thomas_id": "1753",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001250.json",
+                 "first_name": "Rob",
+                 "middle_name": null,
+                 "last_name": "Bishop",
+                 "party": "R",
+                 "twitter_account": "RepRobBishop",
+                 "facebook_account": "RepRobBishop",
+                 "facebook_id": "",
+                 "url": "http://robbishop.house.gov",
+                 "rss_url": "http://robbishop.house.gov/news/rss.aspx",
+                 "domain": "robbishop.house.gov",
+                 "dw_nominate": "0.793",
+                 "ideal_point": "1.012334567",
+                 "seniority": "12",
+                 "next_election": "2014",
+                 "state": "UT",
+                 "district": "1"
+                 ,"missed_votes_pct": "6.54",
+                 "votes_with_party_pct": "94.34"
+               },
+                           {
+                 "id": "B001251",
+                 "thomas_id": "1761",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001251.json",
+                 "first_name": "G.",
+                 "middle_name": "K.",
+                 "last_name": "Butterfield",
+                 "party": "D",
+                 "twitter_account": "GKButterfield",
+                 "facebook_account": "congressmangkbutterfield",
+                 "facebook_id": "274687979233940",
+                 "url": "http://butterfield.house.gov",
+                 "rss_url": "http://butterfield.house.gov/rss/press-releases.xml",
+                 "domain": "butterfield.house.gov",
+                 "dw_nominate": "-0.385",
+                 "ideal_point": "-0.936323248",
+                 "seniority": "12",
+                 "next_election": "2014",
+                 "state": "NC",
+                 "district": "1"
+                 ,"missed_votes_pct": "4.45",
+                 "votes_with_party_pct": "93.68"
+               },
+                           {
+                 "id": "B001252",
+                 "thomas_id": "1780",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001252.json",
+                 "first_name": "John",
+                 "middle_name": null,
+                 "last_name": "Barrow",
+                 "party": "D",
+                 "twitter_account": "RepJohnBarrow",
+                 "facebook_account": "CongressmanJohnBarrow",
+                 "facebook_id": "285483767395",
+                 "url": "http://barrow.house.gov",
+                 "rss_url": "http://barrow.house.gov/rss.xml",
+                 "domain": "barrow.house.gov",
+                 "dw_nominate": "-0.156",
+                 "ideal_point": "-0.193604155",
+                 "seniority": "10",
+                 "next_election": "2014",
+                 "state": "GA",
+                 "district": "12"
+                 ,"missed_votes_pct": "0.00",
+                 "votes_with_party_pct": "67.70"
+               },
+                           {
+                 "id": "B001255",
+                 "thomas_id": "1787",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001255.json",
+                 "first_name": "Charles",
+                 "middle_name": null,
+                 "last_name": "Boustany Jr.",
+                 "party": "R",
+                 "twitter_account": "RepBoustany",
+                 "facebook_account": "RepBoustany",
+                 "facebook_id": "197407646951718",
+                 "url": "http://boustany.house.gov",
+                 "rss_url": "http://boustany.house.gov/rss/113th-congress.xml",
+                 "domain": "boustany.house.gov",
+                 "dw_nominate": "0.666",
+                 "ideal_point": "0.820041146",
+                 "seniority": "10",
+                 "next_election": "2014",
+                 "state": "LA",
+                 "district": "3"
+                 ,"missed_votes_pct": "0.67",
+                 "votes_with_party_pct": "95.35"
+               },
+                           {
+                 "id": "B001256",
+                 "thomas_id": "1858",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001256.json",
+                 "first_name": "Michele",
+                 "middle_name": null,
+                 "last_name": "Bachmann",
+                 "party": "R",
+                 "twitter_account": "MicheleBachmann",
+                 "facebook_account": "RepMicheleBachmann",
+                 "facebook_id": "7658849357",
+                 "url": "http://bachmann.house.gov",
+                 "rss_url": "http://bachmann.house.gov/rss.xml",
+                 "domain": "bachmann.house.gov",
+                 "dw_nominate": "0.803",
+                 "ideal_point": "0.888131092",
+                 "seniority": "8",
+                 "next_election": "2014",
+                 "state": "MN",
+                 "district": "6"
+                 ,"missed_votes_pct": "8.05",
+                 "votes_with_party_pct": "93.89"
+               },
+                           {
+                 "id": "B001257",
+                 "thomas_id": "1838",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001257.json",
+                 "first_name": "Gus",
+                 "middle_name": null,
+                 "last_name": "Bilirakis",
+                 "party": "R",
+                 "twitter_account": "RepGusBilirakis",
+                 "facebook_account": "GusBilirakis",
+                 "facebook_id": "135445766485586",
+                 "url": "http://bilirakis.house.gov",
+                 "rss_url": "http://bilirakis.house.gov/rss/press-releases.xml",
+                 "domain": "bilirakis.house.gov",
+                 "dw_nominate": "0.583",
+                 "ideal_point": "0.861623358",
+                 "seniority": "10",
+                 "next_election": "2014",
+                 "state": "FL",
+                 "district": "12"
+                 ,"missed_votes_pct": "1.85",
+                 "votes_with_party_pct": "95.38"
+               },
+                           {
+                 "id": "B001259",
+                 "thomas_id": "1845",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001259.json",
+                 "first_name": "Bruce",
+                 "middle_name": null,
+                 "last_name": "Braley",
+                 "party": "D",
+                 "twitter_account": "BruceBraley",
+                 "facebook_account": "repbrucebraley",
+                 "facebook_id": "178887452188843",
+                 "url": "http://braley.house.gov",
+                 "rss_url": "http://braley.house.gov/rss.xml",
+                 "domain": "braley.house.gov",
+                 "dw_nominate": "-0.323",
+                 "ideal_point": "-0.665803644",
+                 "seniority": "8",
+                 "next_election": "2014",
+                 "state": "IA",
+                 "district": "1"
+                 ,"missed_votes_pct": "2.85",
+                 "votes_with_party_pct": "90.41"
+               },
+                           {
+                 "id": "B001260",
+                 "thomas_id": "1840",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001260.json",
+                 "first_name": "Vern",
+                 "middle_name": null,
+                 "last_name": "Buchanan",
+                 "party": "R",
+                 "twitter_account": "VernBuchanan",
+                 "facebook_account": "CongressmanBuchanan",
+                 "facebook_id": "67106719910",
+                 "url": "http://buchanan.house.gov",
+                 "rss_url": "",
+                 "domain": "buchanan.house.gov",
+                 "dw_nominate": "0.603",
+                 "ideal_point": "0.684058736",
+                 "seniority": "8",
+                 "next_election": "2014",
+                 "state": "FL",
+                 "district": "16"
+                 ,"missed_votes_pct": "3.78",
+                 "votes_with_party_pct": "94.68"
+               },
+                           {
+                 "id": "B001262",
+                 "thomas_id": "1882",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001262.json",
+                 "first_name": "Paul",
+                 "middle_name": null,
+                 "last_name": "Broun",
+                 "party": "R",
+                 "twitter_account": "RepPaulBrounMD",
+                 "facebook_account": "RepPaulBroun",
+                 "facebook_id": "123908980957273",
+                 "url": "http://broun.house.gov",
+                 "rss_url": "http://broun.house.gov/news/rss.aspx",
+                 "domain": "broun.house.gov",
+                 "dw_nominate": "0.985",
+                 "ideal_point": "0.658031354",
+                 "seniority": "8",
+                 "next_election": "2014",
+                 "state": "GA",
+                 "district": "10"
+                 ,"missed_votes_pct": "3.02",
+                 "votes_with_party_pct": "82.44"
+               },
+                           {
+                 "id": "B001269",
+                 "thomas_id": "2054",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001269.json",
+                 "first_name": "Lou",
+                 "middle_name": null,
+                 "last_name": "Barletta",
+                 "party": "R",
+                 "twitter_account": "RepLouBarletta",
+                 "facebook_account": "CongressmanLouBarletta",
+                 "facebook_id": "192357174108435",
+                 "url": "http://barletta.house.gov",
+                 "rss_url": "http://barletta.house.gov/rss.xml",
+                 "domain": "barletta.house.gov",
+                 "dw_nominate": "0.393",
+                 "ideal_point": "0.61629578",
+                 "seniority": "4",
+                 "state": "PA",
+                 "district": "11"
+                 ,"missed_votes_pct": "2.27",
+                 "votes_with_party_pct": "93.56"
+               },
+                           {
+                 "id": "B001270",
+                 "thomas_id": "1996",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001270.json",
+                 "first_name": "Karen",
+                 "middle_name": null,
+                 "last_name": "Bass",
+                 "party": "D",
+                 "twitter_account": "RepKarenBass",
+                 "facebook_account": "RepKarenBass",
+                 "facebook_id": "190867440939405",
+                 "url": "http://bass.house.gov",
+                 "rss_url": "http://bass.house.gov/rss-press-releases.xml",
+                 "domain": "bass.house.gov",
+                 "dw_nominate": "-0.51",
+                 "ideal_point": "-1.684111097",
+                 "seniority": "4",
+                 "state": "CA",
+                 "district": "37"
+                 ,"missed_votes_pct": "11.66",
+                 "votes_with_party_pct": "93.45"
+               },
+                           {
+                 "id": "B001271",
+                 "thomas_id": "2027",
+                 "api_uri":"http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/B001271.json",
+                 "first_name": "Dan",
+                 "middle_name": null,
+                 "last_name": "Benishek",
+                 "party": "R",
+                 "twitter_account": "CongressmanDan",
+                 "facebook_account": "CongressmanDan",
+                 "facebook_id": "1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:457" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>_xll.JSON.PARSE(B7)</f>
+        <v>-4.1621381243032117E-120</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="array" ref="C8:D10">_xll.JSON.GET(B8)</f>
+        <v>status</v>
+      </c>
+      <c r="D8" t="str">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="2:457" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <v>copyright</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Copyright (c) 2015 The New York Times Company.  All Rights Reserved.</v>
+      </c>
+    </row>
+    <row r="10" spans="2:457" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <v>*results</v>
+      </c>
+      <c r="D10">
+        <v>-5.2114553723865174E-115</v>
+      </c>
+      <c r="E10">
+        <f>_xll.JSON.GET(D10)</f>
+        <v>-8.1739671736875076E-98</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="array" ref="F10:G14">_xll.JSON.GET(E10)</f>
+        <v>congress</v>
+      </c>
+      <c r="G10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:457" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <v>chamber</v>
+      </c>
+      <c r="G11" t="str">
+        <v>House</v>
+      </c>
+    </row>
+    <row r="12" spans="2:457" x14ac:dyDescent="0.25">
+      <c r="F12" t="str">
+        <v>num_results</v>
+      </c>
+      <c r="G12">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="2:457" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <v>offset</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:457" x14ac:dyDescent="0.25">
+      <c r="F14" t="str">
+        <v>*members</v>
+      </c>
+      <c r="G14">
+        <v>-8.1831646503517322E-98</v>
+      </c>
+      <c r="H14">
+        <f t="array" ref="H14:QO14">_xll.JSON.GET(G14)</f>
+        <v>-2.8796808308293022E-98</v>
+      </c>
+      <c r="I14">
+        <v>-2.8797254787742741E-98</v>
+      </c>
+      <c r="J14">
+        <v>-2.8797701267192461E-98</v>
+      </c>
+      <c r="K14">
+        <v>-2.8798147746642181E-98</v>
+      </c>
+      <c r="L14">
+        <v>-2.87985942260919E-98</v>
+      </c>
+      <c r="M14">
+        <v>-2.879904070554162E-98</v>
+      </c>
+      <c r="N14">
+        <v>-2.879948718499134E-98</v>
+      </c>
+      <c r="O14">
+        <v>-2.8799933664441059E-98</v>
+      </c>
+      <c r="P14">
+        <v>-2.8800380143890779E-98</v>
+      </c>
+      <c r="Q14">
+        <v>-2.8800826623340499E-98</v>
+      </c>
+      <c r="R14">
+        <v>-2.8801273102790218E-98</v>
+      </c>
+      <c r="S14">
+        <v>-2.8801719582239938E-98</v>
+      </c>
+      <c r="T14">
+        <v>-2.8802166061689657E-98</v>
+      </c>
+      <c r="U14">
+        <v>-2.8802612541139377E-98</v>
+      </c>
+      <c r="V14">
+        <v>-2.8803059020589097E-98</v>
+      </c>
+      <c r="W14">
+        <v>-2.8803505500038816E-98</v>
+      </c>
+      <c r="X14">
+        <v>-2.8803951979488536E-98</v>
+      </c>
+      <c r="Y14">
+        <v>-2.8804398458938256E-98</v>
+      </c>
+      <c r="Z14">
+        <v>-2.8804844938387975E-98</v>
+      </c>
+      <c r="AA14">
+        <v>-2.8805291417837695E-98</v>
+      </c>
+      <c r="AB14">
+        <v>-2.8805737897287415E-98</v>
+      </c>
+      <c r="AC14">
+        <v>-2.8806184376737134E-98</v>
+      </c>
+      <c r="AD14">
+        <v>-2.8806630856186854E-98</v>
+      </c>
+      <c r="AE14">
+        <v>-2.8807077335636573E-98</v>
+      </c>
+      <c r="AF14">
+        <v>-2.8807523815086293E-98</v>
+      </c>
+      <c r="AG14">
+        <v>-2.8807970294536013E-98</v>
+      </c>
+      <c r="AH14">
+        <v>-2.8808416773985732E-98</v>
+      </c>
+      <c r="AI14">
+        <v>-2.8808863253435452E-98</v>
+      </c>
+      <c r="AJ14">
+        <v>-2.8809309732885172E-98</v>
+      </c>
+      <c r="AK14">
+        <v>-2.8809756212334891E-98</v>
+      </c>
+      <c r="AL14">
+        <v>-2.8810202691784611E-98</v>
+      </c>
+      <c r="AM14">
+        <v>-2.8810649171234331E-98</v>
+      </c>
+      <c r="AN14">
+        <v>-2.881109565068405E-98</v>
+      </c>
+      <c r="AO14">
+        <v>-2.881154213013377E-98</v>
+      </c>
+      <c r="AP14">
+        <v>-2.8811988609583489E-98</v>
+      </c>
+      <c r="AQ14">
+        <v>-2.8812435089033209E-98</v>
+      </c>
+      <c r="AR14">
+        <v>-2.8812881568482929E-98</v>
+      </c>
+      <c r="AS14">
+        <v>-2.8813328047932648E-98</v>
+      </c>
+      <c r="AT14">
+        <v>-2.8813774527382368E-98</v>
+      </c>
+      <c r="AU14">
+        <v>-2.8814221006832088E-98</v>
+      </c>
+      <c r="AV14">
+        <v>-2.8814667486281807E-98</v>
+      </c>
+      <c r="AW14">
+        <v>-2.8815113965731527E-98</v>
+      </c>
+      <c r="AX14">
+        <v>-2.8815560445181247E-98</v>
+      </c>
+      <c r="AY14">
+        <v>-2.8816006924630966E-98</v>
+      </c>
+      <c r="AZ14">
+        <v>-2.8816453404080686E-98</v>
+      </c>
+      <c r="BA14">
+        <v>-2.8816899883530406E-98</v>
+      </c>
+      <c r="BB14">
+        <v>-2.8817346362980125E-98</v>
+      </c>
+      <c r="BC14">
+        <v>-2.8817792842429845E-98</v>
+      </c>
+      <c r="BD14">
+        <v>-2.8818239321879564E-98</v>
+      </c>
+      <c r="BE14">
+        <v>-2.8818685801329284E-98</v>
+      </c>
+      <c r="BF14">
+        <v>-2.8819132280779004E-98</v>
+      </c>
+      <c r="BG14">
+        <v>-2.8819578760228723E-98</v>
+      </c>
+      <c r="BH14">
+        <v>-2.8820025239678443E-98</v>
+      </c>
+      <c r="BI14">
+        <v>-2.8820471719128163E-98</v>
+      </c>
+      <c r="BJ14">
+        <v>-2.8820918198577882E-98</v>
+      </c>
+      <c r="BK14">
+        <v>-2.8821364678027602E-98</v>
+      </c>
+      <c r="BL14">
+        <v>-2.8821811157477322E-98</v>
+      </c>
+      <c r="BM14">
+        <v>-2.8822257636927041E-98</v>
+      </c>
+      <c r="BN14">
+        <v>-2.8822704116376761E-98</v>
+      </c>
+      <c r="BO14">
+        <v>-2.882315059582648E-98</v>
+      </c>
+      <c r="BP14">
+        <v>-2.88235970752762E-98</v>
+      </c>
+      <c r="BQ14">
+        <v>-2.882404355472592E-98</v>
+      </c>
+      <c r="BR14">
+        <v>-2.8824490034175639E-98</v>
+      </c>
+      <c r="BS14">
+        <v>-2.8824936513625359E-98</v>
+      </c>
+      <c r="BT14">
+        <v>-2.8825382993075079E-98</v>
+      </c>
+      <c r="BU14">
+        <v>-2.8825829472524798E-98</v>
+      </c>
+      <c r="BV14">
+        <v>-2.8826275951974518E-98</v>
+      </c>
+      <c r="BW14">
+        <v>-2.8826722431424238E-98</v>
+      </c>
+      <c r="BX14">
+        <v>-2.8827168910873957E-98</v>
+      </c>
+      <c r="BY14">
+        <v>-2.8827615390323677E-98</v>
+      </c>
+      <c r="BZ14">
+        <v>-2.8828061869773396E-98</v>
+      </c>
+      <c r="CA14">
+        <v>-2.8828508349223116E-98</v>
+      </c>
+      <c r="CB14">
+        <v>-2.8828954828672836E-98</v>
+      </c>
+      <c r="CC14">
+        <v>-2.8829401308122555E-98</v>
+      </c>
+      <c r="CD14">
+        <v>-2.8829847787572275E-98</v>
+      </c>
+      <c r="CE14">
+        <v>-2.8830294267021995E-98</v>
+      </c>
+      <c r="CF14">
+        <v>-2.8830740746471714E-98</v>
+      </c>
+      <c r="CG14">
+        <v>-2.8831187225921434E-98</v>
+      </c>
+      <c r="CH14">
+        <v>-2.8831633705371154E-98</v>
+      </c>
+      <c r="CI14">
+        <v>-2.8832080184820873E-98</v>
+      </c>
+      <c r="CJ14">
+        <v>-2.8832526664270593E-98</v>
+      </c>
+      <c r="CK14">
+        <v>-2.8832973143720312E-98</v>
+      </c>
+      <c r="CL14">
+        <v>-2.8833419623170032E-98</v>
+      </c>
+      <c r="CM14">
+        <v>-2.8833866102619752E-98</v>
+      </c>
+      <c r="CN14">
+        <v>-2.8834312582069471E-98</v>
+      </c>
+      <c r="CO14">
+        <v>-2.8834759061519191E-98</v>
+      </c>
+      <c r="CP14">
+        <v>-2.8835205540968911E-98</v>
+      </c>
+      <c r="CQ14">
+        <v>-2.883565202041863E-98</v>
+      </c>
+      <c r="CR14">
+        <v>-2.883609849986835E-98</v>
+      </c>
+      <c r="CS14">
+        <v>-2.883654497931807E-98</v>
+      </c>
+      <c r="CT14">
+        <v>-2.8836991458767789E-98</v>
+      </c>
+      <c r="CU14">
+        <v>-2.8837437938217509E-98</v>
+      </c>
+      <c r="CV14">
+        <v>-2.8837884417667229E-98</v>
+      </c>
+      <c r="CW14">
+        <v>-2.8838330897116948E-98</v>
+      </c>
+      <c r="CX14">
+        <v>-2.8838777376566668E-98</v>
+      </c>
+      <c r="CY14">
+        <v>-2.8839223856016387E-98</v>
+      </c>
+      <c r="CZ14">
+        <v>-2.8839670335466107E-98</v>
+      </c>
+      <c r="DA14">
+        <v>-2.8840116814915827E-98</v>
+      </c>
+      <c r="DB14">
+        <v>-2.8840563294365546E-98</v>
+      </c>
+      <c r="DC14">
+        <v>-2.8841009773815266E-98</v>
+      </c>
+      <c r="DD14">
+        <v>-2.8841456253264986E-98</v>
+      </c>
+      <c r="DE14">
+        <v>-2.8841902732714705E-98</v>
+      </c>
+      <c r="DF14">
+        <v>-2.8842349212164425E-98</v>
+      </c>
+      <c r="DG14">
+        <v>-2.8842795691614145E-98</v>
+      </c>
+      <c r="DH14">
+        <v>-2.8843242171063864E-98</v>
+      </c>
+      <c r="DI14">
+        <v>-2.8843688650513584E-98</v>
+      </c>
+      <c r="DJ14">
+        <v>-2.8844135129963303E-98</v>
+      </c>
+      <c r="DK14">
+        <v>-2.8844581609413023E-98</v>
+      </c>
+      <c r="DL14">
+        <v>-2.8845028088862743E-98</v>
+      </c>
+      <c r="DM14">
+        <v>-2.8845474568312462E-98</v>
+      </c>
+      <c r="DN14">
+        <v>-2.8845921047762182E-98</v>
+      </c>
+      <c r="DO14">
+        <v>-2.8846367527211902E-98</v>
+      </c>
+      <c r="DP14">
+        <v>-2.8846814006661621E-98</v>
+      </c>
+      <c r="DQ14">
+        <v>-2.8847260486111341E-98</v>
+      </c>
+      <c r="DR14">
+        <v>-2.8847706965561061E-98</v>
+      </c>
+      <c r="DS14">
+        <v>-2.884815344501078E-98</v>
+      </c>
+      <c r="DT14">
+        <v>-2.88485999244605E-98</v>
+      </c>
+      <c r="DU14">
+        <v>-2.8849046403910219E-98</v>
+      </c>
+      <c r="DV14">
+        <v>-2.8849492883359939E-98</v>
+      </c>
+      <c r="DW14">
+        <v>-2.8849939362809659E-98</v>
+      </c>
+      <c r="DX14">
+        <v>-2.8850385842259378E-98</v>
+      </c>
+      <c r="DY14">
+        <v>-2.8850832321709098E-98</v>
+      </c>
+      <c r="DZ14">
+        <v>-2.8851278801158818E-98</v>
+      </c>
+      <c r="EA14">
+        <v>-2.8851725280608537E-98</v>
+      </c>
+      <c r="EB14">
+        <v>-2.8852171760058257E-98</v>
+      </c>
+      <c r="EC14">
+        <v>-2.8852618239507977E-98</v>
+      </c>
+      <c r="ED14">
+        <v>-2.8853064718957696E-98</v>
+      </c>
+      <c r="EE14">
+        <v>-2.8853511198407416E-98</v>
+      </c>
+      <c r="EF14">
+        <v>-2.8853957677857136E-98</v>
+      </c>
+      <c r="EG14">
+        <v>-2.8854404157306855E-98</v>
+      </c>
+      <c r="EH14">
+        <v>-2.8854850636756575E-98</v>
+      </c>
+      <c r="EI14">
+        <v>-2.8855297116206294E-98</v>
+      </c>
+      <c r="EJ14">
+        <v>-2.8855743595656014E-98</v>
+      </c>
+      <c r="EK14">
+        <v>-2.8856190075105734E-98</v>
+      </c>
+      <c r="EL14">
+        <v>-2.8856636554555453E-98</v>
+      </c>
+      <c r="EM14">
+        <v>-2.8857083034005173E-98</v>
+      </c>
+      <c r="EN14">
+        <v>-2.8857529513454893E-98</v>
+      </c>
+      <c r="EO14">
+        <v>-2.8857975992904612E-98</v>
+      </c>
+      <c r="EP14">
+        <v>-2.8858422472354332E-98</v>
+      </c>
+      <c r="EQ14">
+        <v>-2.8858868951804052E-98</v>
+      </c>
+      <c r="ER14">
+        <v>-2.8859315431253771E-98</v>
+      </c>
+      <c r="ES14">
+        <v>-2.8859761910703491E-98</v>
+      </c>
+      <c r="ET14">
+        <v>-2.886020839015321E-98</v>
+      </c>
+      <c r="EU14">
+        <v>-2.886065486960293E-98</v>
+      </c>
+      <c r="EV14">
+        <v>-2.886110134905265E-98</v>
+      </c>
+      <c r="EW14">
+        <v>-2.8861547828502369E-98</v>
+      </c>
+      <c r="EX14">
+        <v>-2.8861994307952089E-98</v>
+      </c>
+      <c r="EY14">
+        <v>-2.8862440787401809E-98</v>
+      </c>
+      <c r="EZ14">
+        <v>-2.8862887266851528E-98</v>
+      </c>
+      <c r="FA14">
+        <v>-2.8863333746301248E-98</v>
+      </c>
+      <c r="FB14">
+        <v>-2.8863780225750968E-98</v>
+      </c>
+      <c r="FC14">
+        <v>-2.8864226705200687E-98</v>
+      </c>
+      <c r="FD14">
+        <v>-2.8864673184650407E-98</v>
+      </c>
+      <c r="FE14">
+        <v>-2.8865119664100126E-98</v>
+      </c>
+      <c r="FF14">
+        <v>-2.8865566143549846E-98</v>
+      </c>
+      <c r="FG14">
+        <v>-2.8866012622999566E-98</v>
+      </c>
+      <c r="FH14">
+        <v>-2.8866459102449285E-98</v>
+      </c>
+      <c r="FI14">
+        <v>-2.8866905581899005E-98</v>
+      </c>
+      <c r="FJ14">
+        <v>-2.8867352061348725E-98</v>
+      </c>
+      <c r="FK14">
+        <v>-2.8867798540798444E-98</v>
+      </c>
+      <c r="FL14">
+        <v>-2.8868245020248164E-98</v>
+      </c>
+      <c r="FM14">
+        <v>-2.8868691499697884E-98</v>
+      </c>
+      <c r="FN14">
+        <v>-2.8869137979147603E-98</v>
+      </c>
+      <c r="FO14">
+        <v>-2.8869584458597323E-98</v>
+      </c>
+      <c r="FP14">
+        <v>-2.8870030938047043E-98</v>
+      </c>
+      <c r="FQ14">
+        <v>-2.8870477417496762E-98</v>
+      </c>
+      <c r="FR14">
+        <v>-2.8870923896946482E-98</v>
+      </c>
+      <c r="FS14">
+        <v>-2.8871370376396201E-98</v>
+      </c>
+      <c r="FT14">
+        <v>-2.8871816855845921E-98</v>
+      </c>
+      <c r="FU14">
+        <v>-2.8872263335295641E-98</v>
+      </c>
+      <c r="FV14">
+        <v>-2.887270981474536E-98</v>
+      </c>
+      <c r="FW14">
+        <v>-2.887315629419508E-98</v>
+      </c>
+      <c r="FX14">
+        <v>-2.88736027736448E-98</v>
+      </c>
+      <c r="FY14">
+        <v>-2.8874049253094519E-98</v>
+      </c>
+      <c r="FZ14">
+        <v>-2.8874495732544239E-98</v>
+      </c>
+      <c r="GA14">
+        <v>-2.8874942211993959E-98</v>
+      </c>
+      <c r="GB14">
+        <v>-2.8875388691443678E-98</v>
+      </c>
+      <c r="GC14">
+        <v>-2.8875835170893398E-98</v>
+      </c>
+      <c r="GD14">
+        <v>-2.8876281650343117E-98</v>
+      </c>
+      <c r="GE14">
+        <v>-2.8876728129792837E-98</v>
+      </c>
+      <c r="GF14">
+        <v>-2.8877174609242557E-98</v>
+      </c>
+      <c r="GG14">
+        <v>-2.8877621088692276E-98</v>
+      </c>
+      <c r="GH14">
+        <v>-2.8878067568141996E-98</v>
+      </c>
+      <c r="GI14">
+        <v>-2.8878514047591716E-98</v>
+      </c>
+      <c r="GJ14">
+        <v>-2.8878960527041435E-98</v>
+      </c>
+      <c r="GK14">
+        <v>-2.8879407006491155E-98</v>
+      </c>
+      <c r="GL14">
+        <v>-2.8879853485940875E-98</v>
+      </c>
+      <c r="GM14">
+        <v>-2.8880299965390594E-98</v>
+      </c>
+      <c r="GN14">
+        <v>-2.8880746444840314E-98</v>
+      </c>
+      <c r="GO14">
+        <v>-2.8881192924290033E-98</v>
+      </c>
+      <c r="GP14">
+        <v>-2.8881639403739753E-98</v>
+      </c>
+      <c r="GQ14">
+        <v>-2.8882085883189473E-98</v>
+      </c>
+      <c r="GR14">
+        <v>-2.8882532362639192E-98</v>
+      </c>
+      <c r="GS14">
+        <v>-2.8882978842088912E-98</v>
+      </c>
+      <c r="GT14">
+        <v>-2.8883425321538632E-98</v>
+      </c>
+      <c r="GU14">
+        <v>-2.8883871800988351E-98</v>
+      </c>
+      <c r="GV14">
+        <v>-2.8884318280438071E-98</v>
+      </c>
+      <c r="GW14">
+        <v>-2.8884764759887791E-98</v>
+      </c>
+      <c r="GX14">
+        <v>-2.888521123933751E-98</v>
+      </c>
+      <c r="GY14">
+        <v>-2.888565771878723E-98</v>
+      </c>
+      <c r="GZ14">
+        <v>-2.8886104198236949E-98</v>
+      </c>
+      <c r="HA14">
+        <v>-2.8886550677686669E-98</v>
+      </c>
+      <c r="HB14">
+        <v>-2.8886997157136389E-98</v>
+      </c>
+      <c r="HC14">
+        <v>-2.8887443636586108E-98</v>
+      </c>
+      <c r="HD14">
+        <v>-2.8887890116035828E-98</v>
+      </c>
+      <c r="HE14">
+        <v>-2.8888336595485548E-98</v>
+      </c>
+      <c r="HF14">
+        <v>-2.8888783074935267E-98</v>
+      </c>
+      <c r="HG14">
+        <v>-2.8889229554384987E-98</v>
+      </c>
+      <c r="HH14">
+        <v>-2.8889676033834707E-98</v>
+      </c>
+      <c r="HI14">
+        <v>-2.8890122513284426E-98</v>
+      </c>
+      <c r="HJ14">
+        <v>-2.8890568992734146E-98</v>
+      </c>
+      <c r="HK14">
+        <v>-2.8891015472183866E-98</v>
+      </c>
+      <c r="HL14">
+        <v>-2.8891461951633585E-98</v>
+      </c>
+      <c r="HM14">
+        <v>-2.8891908431083305E-98</v>
+      </c>
+      <c r="HN14">
+        <v>-2.8892354910533024E-98</v>
+      </c>
+      <c r="HO14">
+        <v>-2.8892801389982744E-98</v>
+      </c>
+      <c r="HP14">
+        <v>-2.8893247869432464E-98</v>
+      </c>
+      <c r="HQ14">
+        <v>-2.8893694348882183E-98</v>
+      </c>
+      <c r="HR14">
+        <v>-2.8894140828331903E-98</v>
+      </c>
+      <c r="HS14">
+        <v>-2.8894587307781623E-98</v>
+      </c>
+      <c r="HT14">
+        <v>-2.8895033787231342E-98</v>
+      </c>
+      <c r="HU14">
+        <v>-2.8895480266681062E-98</v>
+      </c>
+      <c r="HV14">
+        <v>-2.8895926746130782E-98</v>
+      </c>
+      <c r="HW14">
+        <v>-2.8896373225580501E-98</v>
+      </c>
+      <c r="HX14">
+        <v>-2.8896819705030221E-98</v>
+      </c>
+      <c r="HY14">
+        <v>-2.889726618447994E-98</v>
+      </c>
+      <c r="HZ14">
+        <v>-2.889771266392966E-98</v>
+      </c>
+      <c r="IA14">
+        <v>-2.889815914337938E-98</v>
+      </c>
+      <c r="IB14">
+        <v>-2.8898605622829099E-98</v>
+      </c>
+      <c r="IC14">
+        <v>-2.8899052102278819E-98</v>
+      </c>
+      <c r="ID14">
+        <v>-2.8899498581728539E-98</v>
+      </c>
+      <c r="IE14">
+        <v>-2.8899945061178258E-98</v>
+      </c>
+      <c r="IF14">
+        <v>-2.8900391540627978E-98</v>
+      </c>
+      <c r="IG14">
+        <v>-2.8900838020077698E-98</v>
+      </c>
+      <c r="IH14">
+        <v>-2.8901284499527417E-98</v>
+      </c>
+      <c r="II14">
+        <v>-2.8901730978977137E-98</v>
+      </c>
+      <c r="IJ14">
+        <v>-2.8902177458426856E-98</v>
+      </c>
+      <c r="IK14">
+        <v>-2.8902623937876576E-98</v>
+      </c>
+      <c r="IL14">
+        <v>-2.8903070417326296E-98</v>
+      </c>
+      <c r="IM14">
+        <v>-2.8903516896776015E-98</v>
+      </c>
+      <c r="IN14">
+        <v>-2.8903963376225735E-98</v>
+      </c>
+      <c r="IO14">
+        <v>-2.8904409855675455E-98</v>
+      </c>
+      <c r="IP14">
+        <v>-2.8904856335125174E-98</v>
+      </c>
+      <c r="IQ14">
+        <v>-2.8905302814574894E-98</v>
+      </c>
+      <c r="IR14">
+        <v>-2.8905749294024614E-98</v>
+      </c>
+      <c r="IS14">
+        <v>-2.8906195773474333E-98</v>
+      </c>
+      <c r="IT14">
+        <v>-2.8906642252924053E-98</v>
+      </c>
+      <c r="IU14">
+        <v>-2.8907088732373773E-98</v>
+      </c>
+      <c r="IV14">
+        <v>-2.8907535211823492E-98</v>
+      </c>
+      <c r="IW14">
+        <v>-2.8907981691273212E-98</v>
+      </c>
+      <c r="IX14">
+        <v>-2.8908428170722931E-98</v>
+      </c>
+      <c r="IY14">
+        <v>-2.8908874650172651E-98</v>
+      </c>
+      <c r="IZ14">
+        <v>-2.8909321129622371E-98</v>
+      </c>
+      <c r="JA14">
+        <v>-2.890976760907209E-98</v>
+      </c>
+      <c r="JB14">
+        <v>-2.891021408852181E-98</v>
+      </c>
+      <c r="JC14">
+        <v>-2.891066056797153E-98</v>
+      </c>
+      <c r="JD14">
+        <v>-2.8911107047421249E-98</v>
+      </c>
+      <c r="JE14">
+        <v>-2.8911553526870969E-98</v>
+      </c>
+      <c r="JF14">
+        <v>-2.8912000006320689E-98</v>
+      </c>
+      <c r="JG14">
+        <v>-2.8912446485770408E-98</v>
+      </c>
+      <c r="JH14">
+        <v>-2.8912892965220128E-98</v>
+      </c>
+      <c r="JI14">
+        <v>-2.8913339444669847E-98</v>
+      </c>
+      <c r="JJ14">
+        <v>-2.8913785924119567E-98</v>
+      </c>
+      <c r="JK14">
+        <v>-2.8914232403569287E-98</v>
+      </c>
+      <c r="JL14">
+        <v>-2.8914678883019006E-98</v>
+      </c>
+      <c r="JM14">
+        <v>-2.8915125362468726E-98</v>
+      </c>
+      <c r="JN14">
+        <v>-2.8915571841918446E-98</v>
+      </c>
+      <c r="JO14">
+        <v>-2.8916018321368165E-98</v>
+      </c>
+      <c r="JP14">
+        <v>-2.8916464800817885E-98</v>
+      </c>
+      <c r="JQ14">
+        <v>-2.8916911280267605E-98</v>
+      </c>
+      <c r="JR14">
+        <v>-2.8917357759717324E-98</v>
+      </c>
+      <c r="JS14">
+        <v>-2.8917804239167044E-98</v>
+      </c>
+      <c r="JT14">
+        <v>-2.8918250718616763E-98</v>
+      </c>
+      <c r="JU14">
+        <v>-2.8918697198066483E-98</v>
+      </c>
+      <c r="JV14">
+        <v>-2.8919143677516203E-98</v>
+      </c>
+      <c r="JW14">
+        <v>-2.8919590156965922E-98</v>
+      </c>
+      <c r="JX14">
+        <v>-2.8920036636415642E-98</v>
+      </c>
+      <c r="JY14">
+        <v>-2.8920483115865362E-98</v>
+      </c>
+      <c r="JZ14">
+        <v>-2.8920929595315081E-98</v>
+      </c>
+      <c r="KA14">
+        <v>-2.8921376074764801E-98</v>
+      </c>
+      <c r="KB14">
+        <v>-2.8921822554214521E-98</v>
+      </c>
+      <c r="KC14">
+        <v>-2.892226903366424E-98</v>
+      </c>
+      <c r="KD14">
+        <v>-2.892271551311396E-98</v>
+      </c>
+      <c r="KE14">
+        <v>-2.892316199256368E-98</v>
+      </c>
+      <c r="KF14">
+        <v>-2.8923608472013399E-98</v>
+      </c>
+      <c r="KG14">
+        <v>-2.8924054951463119E-98</v>
+      </c>
+      <c r="KH14">
+        <v>-2.8924501430912838E-98</v>
+      </c>
+      <c r="KI14">
+        <v>-2.8924947910362558E-98</v>
+      </c>
+      <c r="KJ14">
+        <v>-2.8925394389812278E-98</v>
+      </c>
+      <c r="KK14">
+        <v>-2.8925840869261997E-98</v>
+      </c>
+      <c r="KL14">
+        <v>-2.8926287348711717E-98</v>
+      </c>
+      <c r="KM14">
+        <v>-2.8926733828161437E-98</v>
+      </c>
+      <c r="KN14">
+        <v>-2.8927180307611156E-98</v>
+      </c>
+      <c r="KO14">
+        <v>-2.8927626787060876E-98</v>
+      </c>
+      <c r="KP14">
+        <v>-2.8928073266510596E-98</v>
+      </c>
+      <c r="KQ14">
+        <v>-2.8928519745960315E-98</v>
+      </c>
+      <c r="KR14">
+        <v>-2.8928966225410035E-98</v>
+      </c>
+      <c r="KS14">
+        <v>-2.8929412704859754E-98</v>
+      </c>
+      <c r="KT14">
+        <v>-2.8929859184309474E-98</v>
+      </c>
+      <c r="KU14">
+        <v>-2.8930305663759194E-98</v>
+      </c>
+      <c r="KV14">
+        <v>-2.8930752143208913E-98</v>
+      </c>
+      <c r="KW14">
+        <v>-2.8931198622658633E-98</v>
+      </c>
+      <c r="KX14">
+        <v>-2.8931645102108353E-98</v>
+      </c>
+      <c r="KY14">
+        <v>-2.8932091581558072E-98</v>
+      </c>
+      <c r="KZ14">
+        <v>-2.8932538061007792E-98</v>
+      </c>
+      <c r="LA14">
+        <v>-2.8932984540457512E-98</v>
+      </c>
+      <c r="LB14">
+        <v>-2.8933431019907231E-98</v>
+      </c>
+      <c r="LC14">
+        <v>-2.8933877499356951E-98</v>
+      </c>
+      <c r="LD14">
+        <v>-2.893432397880667E-98</v>
+      </c>
+      <c r="LE14">
+        <v>-2.893477045825639E-98</v>
+      </c>
+      <c r="LF14">
+        <v>-2.893521693770611E-98</v>
+      </c>
+      <c r="LG14">
+        <v>-2.8935663417155829E-98</v>
+      </c>
+      <c r="LH14">
+        <v>-2.8936109896605549E-98</v>
+      </c>
+      <c r="LI14">
+        <v>-2.8936556376055269E-98</v>
+      </c>
+      <c r="LJ14">
+        <v>-2.8937002855504988E-98</v>
+      </c>
+      <c r="LK14">
+        <v>-2.8937449334954708E-98</v>
+      </c>
+      <c r="LL14">
+        <v>-2.8937895814404428E-98</v>
+      </c>
+      <c r="LM14">
+        <v>-2.8938342293854147E-98</v>
+      </c>
+      <c r="LN14">
+        <v>-2.8938788773303867E-98</v>
+      </c>
+      <c r="LO14">
+        <v>-2.8939235252753586E-98</v>
+      </c>
+      <c r="LP14">
+        <v>-2.8939681732203306E-98</v>
+      </c>
+      <c r="LQ14">
+        <v>-2.8940128211653026E-98</v>
+      </c>
+      <c r="LR14">
+        <v>-2.8940574691102745E-98</v>
+      </c>
+      <c r="LS14">
+        <v>-2.8941021170552465E-98</v>
+      </c>
+      <c r="LT14">
+        <v>-2.8941467650002185E-98</v>
+      </c>
+      <c r="LU14">
+        <v>-2.8941914129451904E-98</v>
+      </c>
+      <c r="LV14">
+        <v>-2.8942360608901624E-98</v>
+      </c>
+      <c r="LW14">
+        <v>-2.8942807088351344E-98</v>
+      </c>
+      <c r="LX14">
+        <v>-2.8943253567801063E-98</v>
+      </c>
+      <c r="LY14">
+        <v>-2.8943700047250783E-98</v>
+      </c>
+      <c r="LZ14">
+        <v>-2.8944146526700503E-98</v>
+      </c>
+      <c r="MA14">
+        <v>-2.8944593006150222E-98</v>
+      </c>
+      <c r="MB14">
+        <v>-2.8945039485599942E-98</v>
+      </c>
+      <c r="MC14">
+        <v>-2.8945485965049661E-98</v>
+      </c>
+      <c r="MD14">
+        <v>-2.8945932444499381E-98</v>
+      </c>
+      <c r="ME14">
+        <v>-2.8946378923949101E-98</v>
+      </c>
+      <c r="MF14">
+        <v>-2.894682540339882E-98</v>
+      </c>
+      <c r="MG14">
+        <v>-2.894727188284854E-98</v>
+      </c>
+      <c r="MH14">
+        <v>-2.894771836229826E-98</v>
+      </c>
+      <c r="MI14">
+        <v>-2.8948164841747979E-98</v>
+      </c>
+      <c r="MJ14">
+        <v>-2.8948611321197699E-98</v>
+      </c>
+      <c r="MK14">
+        <v>-2.8949057800647419E-98</v>
+      </c>
+      <c r="ML14">
+        <v>-2.8949504280097138E-98</v>
+      </c>
+      <c r="MM14">
+        <v>-2.8949950759546858E-98</v>
+      </c>
+      <c r="MN14">
+        <v>-2.8950397238996577E-98</v>
+      </c>
+      <c r="MO14">
+        <v>-2.8950843718446297E-98</v>
+      </c>
+      <c r="MP14">
+        <v>-2.8951290197896017E-98</v>
+      </c>
+      <c r="MQ14">
+        <v>-2.8951736677345736E-98</v>
+      </c>
+      <c r="MR14">
+        <v>-2.8952183156795456E-98</v>
+      </c>
+      <c r="MS14">
+        <v>-2.8952629636245176E-98</v>
+      </c>
+      <c r="MT14">
+        <v>-2.8953076115694895E-98</v>
+      </c>
+      <c r="MU14">
+        <v>-2.8953522595144615E-98</v>
+      </c>
+      <c r="MV14">
+        <v>-2.8953969074594335E-98</v>
+      </c>
+      <c r="MW14">
+        <v>-2.8954415554044054E-98</v>
+      </c>
+      <c r="MX14">
+        <v>-2.8954862033493774E-98</v>
+      </c>
+      <c r="MY14">
+        <v>-2.8955308512943493E-98</v>
+      </c>
+      <c r="MZ14">
+        <v>-2.8955754992393213E-98</v>
+      </c>
+      <c r="NA14">
+        <v>-2.8956201471842933E-98</v>
+      </c>
+      <c r="NB14">
+        <v>-2.8956647951292652E-98</v>
+      </c>
+      <c r="NC14">
+        <v>-2.8957094430742372E-98</v>
+      </c>
+      <c r="ND14">
+        <v>-2.8957540910192092E-98</v>
+      </c>
+      <c r="NE14">
+        <v>-2.8957987389641811E-98</v>
+      </c>
+      <c r="NF14">
+        <v>-2.8958433869091531E-98</v>
+      </c>
+      <c r="NG14">
+        <v>-2.8958880348541251E-98</v>
+      </c>
+      <c r="NH14">
+        <v>-2.895932682799097E-98</v>
+      </c>
+      <c r="NI14">
+        <v>-2.895977330744069E-98</v>
+      </c>
+      <c r="NJ14">
+        <v>-2.896021978689041E-98</v>
+      </c>
+      <c r="NK14">
+        <v>-2.8960666266340129E-98</v>
+      </c>
+      <c r="NL14">
+        <v>-2.8961112745789849E-98</v>
+      </c>
+      <c r="NM14">
+        <v>-2.8961559225239568E-98</v>
+      </c>
+      <c r="NN14">
+        <v>-2.8962005704689288E-98</v>
+      </c>
+      <c r="NO14">
+        <v>-2.8962452184139008E-98</v>
+      </c>
+      <c r="NP14">
+        <v>-2.8962898663588727E-98</v>
+      </c>
+      <c r="NQ14">
+        <v>-2.8963345143038447E-98</v>
+      </c>
+      <c r="NR14">
+        <v>-2.8963791622488167E-98</v>
+      </c>
+      <c r="NS14">
+        <v>-2.8964238101937886E-98</v>
+      </c>
+      <c r="NT14">
+        <v>-2.8964684581387606E-98</v>
+      </c>
+      <c r="NU14">
+        <v>-2.8965131060837326E-98</v>
+      </c>
+      <c r="NV14">
+        <v>-2.8965577540287045E-98</v>
+      </c>
+      <c r="NW14">
+        <v>-2.8966024019736765E-98</v>
+      </c>
+      <c r="NX14">
+        <v>-2.8966470499186484E-98</v>
+      </c>
+      <c r="NY14">
+        <v>-2.8966916978636204E-98</v>
+      </c>
+      <c r="NZ14">
+        <v>-2.8967363458085924E-98</v>
+      </c>
+      <c r="OA14">
+        <v>-2.8967809937535643E-98</v>
+      </c>
+      <c r="OB14">
+        <v>-2.8968256416985363E-98</v>
+      </c>
+      <c r="OC14">
+        <v>-2.8968702896435083E-98</v>
+      </c>
+      <c r="OD14">
+        <v>-2.8969149375884802E-98</v>
+      </c>
+      <c r="OE14">
+        <v>-2.8969595855334522E-98</v>
+      </c>
+      <c r="OF14">
+        <v>-2.8970042334784242E-98</v>
+      </c>
+      <c r="OG14">
+        <v>-2.8970488814233961E-98</v>
+      </c>
+      <c r="OH14">
+        <v>-2.8970935293683681E-98</v>
+      </c>
+      <c r="OI14">
+        <v>-2.89713817731334E-98</v>
+      </c>
+      <c r="OJ14">
+        <v>-2.897182825258312E-98</v>
+      </c>
+      <c r="OK14">
+        <v>-2.897227473203284E-98</v>
+      </c>
+      <c r="OL14">
+        <v>-2.8972721211482559E-98</v>
+      </c>
+      <c r="OM14">
+        <v>-2.8973167690932279E-98</v>
+      </c>
+      <c r="ON14">
+        <v>-2.8973614170381999E-98</v>
+      </c>
+      <c r="OO14">
+        <v>-2.8974060649831718E-98</v>
+      </c>
+      <c r="OP14">
+        <v>-2.8974507129281438E-98</v>
+      </c>
+      <c r="OQ14">
+        <v>-2.8974953608731158E-98</v>
+      </c>
+      <c r="OR14">
+        <v>-2.8975400088180877E-98</v>
+      </c>
+      <c r="OS14">
+        <v>-2.8975846567630597E-98</v>
+      </c>
+      <c r="OT14">
+        <v>-2.8976293047080317E-98</v>
+      </c>
+      <c r="OU14">
+        <v>-2.8976739526530036E-98</v>
+      </c>
+      <c r="OV14">
+        <v>-2.8977186005979756E-98</v>
+      </c>
+      <c r="OW14">
+        <v>-2.8977632485429475E-98</v>
+      </c>
+      <c r="OX14">
+        <v>-2.8978078964879195E-98</v>
+      </c>
+      <c r="OY14">
+        <v>-2.8978525444328915E-98</v>
+      </c>
+      <c r="OZ14">
+        <v>-2.8978971923778634E-98</v>
+      </c>
+      <c r="PA14">
+        <v>-2.8979418403228354E-98</v>
+      </c>
+      <c r="PB14">
+        <v>-2.8979864882678074E-98</v>
+      </c>
+      <c r="PC14">
+        <v>-2.8980311362127793E-98</v>
+      </c>
+      <c r="PD14">
+        <v>-2.8980757841577513E-98</v>
+      </c>
+      <c r="PE14">
+        <v>-2.8981204321027233E-98</v>
+      </c>
+      <c r="PF14">
+        <v>-2.8981650800476952E-98</v>
+      </c>
+      <c r="PG14">
+        <v>-2.8982097279926672E-98</v>
+      </c>
+      <c r="PH14">
+        <v>-2.8982543759376391E-98</v>
+      </c>
+      <c r="PI14">
+        <v>-2.8982990238826111E-98</v>
+      </c>
+      <c r="PJ14">
+        <v>-2.8983436718275831E-98</v>
+      </c>
+      <c r="PK14">
+        <v>-2.898388319772555E-98</v>
+      </c>
+      <c r="PL14">
+        <v>-2.898432967717527E-98</v>
+      </c>
+      <c r="PM14">
+        <v>-2.898477615662499E-98</v>
+      </c>
+      <c r="PN14">
+        <v>-2.8985222636074709E-98</v>
+      </c>
+      <c r="PO14">
+        <v>-2.8985669115524429E-98</v>
+      </c>
+      <c r="PP14">
+        <v>-2.8986115594974149E-98</v>
+      </c>
+      <c r="PQ14">
+        <v>-2.8986562074423868E-98</v>
+      </c>
+      <c r="PR14">
+        <v>-2.8987008553873588E-98</v>
+      </c>
+      <c r="PS14">
+        <v>-2.8987455033323307E-98</v>
+      </c>
+      <c r="PT14">
+        <v>-2.8987901512773027E-98</v>
+      </c>
+      <c r="PU14">
+        <v>-2.8988347992222747E-98</v>
+      </c>
+      <c r="PV14">
+        <v>-2.8988794471672466E-98</v>
+      </c>
+      <c r="PW14">
+        <v>-2.8989240951122186E-98</v>
+      </c>
+      <c r="PX14">
+        <v>-2.8989687430571906E-98</v>
+      </c>
+      <c r="PY14">
+        <v>-2.8990133910021625E-98</v>
+      </c>
+      <c r="PZ14">
+        <v>-2.8990580389471345E-98</v>
+      </c>
+      <c r="QA14">
+        <v>-2.8991026868921065E-98</v>
+      </c>
+      <c r="QB14">
+        <v>-2.8991473348370784E-98</v>
+      </c>
+      <c r="QC14">
+        <v>-2.8991919827820504E-98</v>
+      </c>
+      <c r="QD14">
+        <v>-2.8992366307270223E-98</v>
+      </c>
+      <c r="QE14">
+        <v>-2.8992812786719943E-98</v>
+      </c>
+      <c r="QF14">
+        <v>-2.8993259266169663E-98</v>
+      </c>
+      <c r="QG14">
+        <v>-2.8993705745619382E-98</v>
+      </c>
+      <c r="QH14">
+        <v>-2.8994152225069102E-98</v>
+      </c>
+      <c r="QI14">
+        <v>-2.8994598704518822E-98</v>
+      </c>
+      <c r="QJ14">
+        <v>-2.8995045183968541E-98</v>
+      </c>
+      <c r="QK14">
+        <v>-2.8995491663418261E-98</v>
+      </c>
+      <c r="QL14">
+        <v>-2.8995938142867981E-98</v>
+      </c>
+      <c r="QM14">
+        <v>-2.89963846223177E-98</v>
+      </c>
+      <c r="QN14">
+        <v>-2.899683110176742E-98</v>
+      </c>
+      <c r="QO14">
+        <v>-2.899727758121714E-98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:457" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="array" ref="H15:I35">_xll.JSON.GET(INDEX(H14:QO14,G15))</f>
+        <v>id</v>
+      </c>
+      <c r="I15" t="str">
+        <v>D000399</v>
+      </c>
+    </row>
+    <row r="16" spans="2:457" x14ac:dyDescent="0.25">
+      <c r="H16" t="str">
+        <v>thomas_id</v>
+      </c>
+      <c r="I16">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
+        <v>api_uri</v>
+      </c>
+      <c r="I17" t="str">
+        <v>http://api.nytimes.com/svc/politics/v3/us/legislative/congress/members/D000399.json</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <v>first_name</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Lloyd</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <v>middle_name</v>
+      </c>
+      <c r="I19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <v>last_name</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Doggett</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <v>party</v>
+      </c>
+      <c r="I21" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <v>twitter_account</v>
+      </c>
+      <c r="I22" t="str">
+        <v>RepLloydDoggett</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <v>facebook_account</v>
+      </c>
+      <c r="I23" t="str">
+        <v>lloyddoggett</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H24" t="str">
+        <v>facebook_id</v>
+      </c>
+      <c r="I24">
+        <v>154050553704</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H25" t="str">
+        <v>url</v>
+      </c>
+      <c r="I25" t="str">
+        <v>http://doggett.house.gov</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <v>rss_url</v>
+      </c>
+      <c r="I26" t="str">
+        <v>http://doggett.house.gov/index.php/component/ninjarsssyndicator/?feed_id=1&amp;amp;format=raw</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <v>domain</v>
+      </c>
+      <c r="I27" t="str">
+        <v>doggett.house.gov</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <v>dw_nominate</v>
+      </c>
+      <c r="I28">
+        <v>-0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <v>ideal_point</v>
+      </c>
+      <c r="I29">
+        <v>-0.96331849599999997</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H30" t="str">
+        <v>seniority</v>
+      </c>
+      <c r="I30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <v>next_election</v>
+      </c>
+      <c r="I31">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <v>state</v>
+      </c>
+      <c r="I32" t="str">
+        <v>TX</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <v>district</v>
+      </c>
+      <c r="I33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <v>missed_votes_pct</v>
+      </c>
+      <c r="I34">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <v>votes_with_party_pct</v>
+      </c>
+      <c r="I35">
+        <v>93.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>$D$5:$E$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>